--- a/contratos/contratos-6-2019.xlsx
+++ b/contratos/contratos-6-2019.xlsx
@@ -955,7 +955,7 @@
     <t>CHRISTIANSE DINA BEATRIZ</t>
   </si>
   <si>
-    <t>BOFFELLI, MARIA INES</t>
+    <t>BOFFELLI. MARIA INES</t>
   </si>
   <si>
     <t>BOUJON HECTOR ORLANDO</t>
@@ -988,7 +988,7 @@
     <t>GALLICET OSCAR MARCELO</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MARTINEZ FEDERICO AUGUSTO</t>
@@ -1066,7 +1066,7 @@
     <t>SCHONFELD HORACIO FRANCISCO</t>
   </si>
   <si>
-    <t>GIMENEZ ANIBAL, FALISTOCCO MARISA DANIELA S.H.</t>
+    <t>GIMENEZ ANIBAL. FALISTOCCO MARISA DANIELA SH</t>
   </si>
   <si>
     <t>FLEMING Y MARTOLIO S.A.</t>
@@ -1141,7 +1141,7 @@
     <t>SPIROPULO ALEXIS YAMIL</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>DE BATTISTA HUGO GUILLERMO</t>
@@ -1171,7 +1171,7 @@
     <t>ROSARIO MAQUINAS VIALES S.R.L.</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>WEIGANDT GERARDO ARTURO</t>
@@ -1678,688 +1678,688 @@
     <t>95</t>
   </si>
   <si>
-    <t>52.000,00</t>
-  </si>
-  <si>
-    <t>119.060,00</t>
-  </si>
-  <si>
-    <t>7.200,00</t>
-  </si>
-  <si>
-    <t>64.050,00</t>
-  </si>
-  <si>
-    <t>498.000,00</t>
-  </si>
-  <si>
-    <t>352.800,00</t>
-  </si>
-  <si>
-    <t>746.000,00</t>
-  </si>
-  <si>
-    <t>735.000,00</t>
-  </si>
-  <si>
-    <t>40.461,00</t>
-  </si>
-  <si>
-    <t>1.450,00</t>
-  </si>
-  <si>
-    <t>889,90</t>
-  </si>
-  <si>
-    <t>105,00</t>
-  </si>
-  <si>
-    <t>10.150,00</t>
-  </si>
-  <si>
-    <t>75,00</t>
-  </si>
-  <si>
-    <t>34.936,08</t>
-  </si>
-  <si>
-    <t>1.204,50</t>
-  </si>
-  <si>
-    <t>17.548,75</t>
-  </si>
-  <si>
-    <t>320,00</t>
-  </si>
-  <si>
-    <t>6.640,00</t>
-  </si>
-  <si>
-    <t>917.178,00</t>
-  </si>
-  <si>
-    <t>221.358,64</t>
-  </si>
-  <si>
-    <t>322.608,00</t>
-  </si>
-  <si>
-    <t>95.259,70</t>
-  </si>
-  <si>
-    <t>81.500,00</t>
-  </si>
-  <si>
-    <t>386.600,00</t>
-  </si>
-  <si>
-    <t>13.050,00</t>
-  </si>
-  <si>
-    <t>18.047,60</t>
-  </si>
-  <si>
-    <t>40.075,00</t>
-  </si>
-  <si>
-    <t>69.932,00</t>
-  </si>
-  <si>
-    <t>16.047,60</t>
-  </si>
-  <si>
-    <t>126.745,09</t>
-  </si>
-  <si>
-    <t>735,00</t>
-  </si>
-  <si>
-    <t>120.800,00</t>
-  </si>
-  <si>
-    <t>39.857,99</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>13.000,00</t>
-  </si>
-  <si>
-    <t>7.900,00</t>
-  </si>
-  <si>
-    <t>234,00</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>112.000,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>533,00</t>
-  </si>
-  <si>
-    <t>6.850,00</t>
-  </si>
-  <si>
-    <t>23.718,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>429.439,91</t>
-  </si>
-  <si>
-    <t>38.028,39</t>
-  </si>
-  <si>
-    <t>69.993,92</t>
-  </si>
-  <si>
-    <t>1.322.481,60</t>
-  </si>
-  <si>
-    <t>17.629,00</t>
-  </si>
-  <si>
-    <t>96.206,00</t>
-  </si>
-  <si>
-    <t>3.274.600,00</t>
-  </si>
-  <si>
-    <t>9.963,14</t>
-  </si>
-  <si>
-    <t>550,60</t>
-  </si>
-  <si>
-    <t>1.576,61</t>
-  </si>
-  <si>
-    <t>3.675,00</t>
-  </si>
-  <si>
-    <t>7.710,00</t>
-  </si>
-  <si>
-    <t>35.240,86</t>
-  </si>
-  <si>
-    <t>427,80</t>
-  </si>
-  <si>
-    <t>10.617,09</t>
-  </si>
-  <si>
-    <t>581.405,00</t>
-  </si>
-  <si>
-    <t>4.199,28</t>
-  </si>
-  <si>
-    <t>17.088,95</t>
-  </si>
-  <si>
-    <t>4.525,26</t>
-  </si>
-  <si>
-    <t>13.730,00</t>
-  </si>
-  <si>
-    <t>32.385,00</t>
-  </si>
-  <si>
-    <t>2.771,00</t>
-  </si>
-  <si>
-    <t>2.849,85</t>
-  </si>
-  <si>
-    <t>1.958,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>51.456,00</t>
-  </si>
-  <si>
-    <t>8.360,00</t>
-  </si>
-  <si>
-    <t>36.299,79</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>27.740,00</t>
-  </si>
-  <si>
-    <t>11.710,00</t>
-  </si>
-  <si>
-    <t>177,60</t>
-  </si>
-  <si>
-    <t>2.944,00</t>
-  </si>
-  <si>
-    <t>11.400,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>13.900,00</t>
-  </si>
-  <si>
-    <t>29.400,00</t>
-  </si>
-  <si>
-    <t>1.799.800,00</t>
-  </si>
-  <si>
-    <t>32.000,00</t>
-  </si>
-  <si>
-    <t>87.500,00</t>
-  </si>
-  <si>
-    <t>5.850,00</t>
-  </si>
-  <si>
-    <t>151.500,00</t>
-  </si>
-  <si>
-    <t>24.400,00</t>
-  </si>
-  <si>
-    <t>32.500,00</t>
-  </si>
-  <si>
-    <t>91.255,00</t>
-  </si>
-  <si>
-    <t>660,00</t>
-  </si>
-  <si>
-    <t>1.080,00</t>
-  </si>
-  <si>
-    <t>6.260,00</t>
-  </si>
-  <si>
-    <t>125.830,00</t>
-  </si>
-  <si>
-    <t>1.835,18</t>
-  </si>
-  <si>
-    <t>15.619,73</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>5.861,00</t>
-  </si>
-  <si>
-    <t>6.914,75</t>
-  </si>
-  <si>
-    <t>730,00</t>
-  </si>
-  <si>
-    <t>844,24</t>
-  </si>
-  <si>
-    <t>6.355,05</t>
-  </si>
-  <si>
-    <t>2.432,00</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>26.680,00</t>
-  </si>
-  <si>
-    <t>38.629,50</t>
-  </si>
-  <si>
-    <t>115,00</t>
-  </si>
-  <si>
-    <t>7.364,30</t>
-  </si>
-  <si>
-    <t>3.950,00</t>
-  </si>
-  <si>
-    <t>102.944,00</t>
-  </si>
-  <si>
-    <t>259.351,00</t>
-  </si>
-  <si>
-    <t>315,00</t>
-  </si>
-  <si>
-    <t>4.297,00</t>
-  </si>
-  <si>
-    <t>28.745,00</t>
-  </si>
-  <si>
-    <t>10.286,00</t>
-  </si>
-  <si>
-    <t>28.557,27</t>
-  </si>
-  <si>
-    <t>2.739,00</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>11.855,00</t>
-  </si>
-  <si>
-    <t>2.484,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>11.200,00</t>
-  </si>
-  <si>
-    <t>86.905,83</t>
-  </si>
-  <si>
-    <t>68.789,00</t>
-  </si>
-  <si>
-    <t>20.130,00</t>
-  </si>
-  <si>
-    <t>5.070,00</t>
-  </si>
-  <si>
-    <t>327.046,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>131.600,00</t>
-  </si>
-  <si>
-    <t>540.000,00</t>
-  </si>
-  <si>
-    <t>14.400,00</t>
-  </si>
-  <si>
-    <t>21.120,00</t>
-  </si>
-  <si>
-    <t>30.647,00</t>
-  </si>
-  <si>
-    <t>187.300,00</t>
-  </si>
-  <si>
-    <t>6.845,00</t>
-  </si>
-  <si>
-    <t>40.132,00</t>
-  </si>
-  <si>
-    <t>65.400,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>37.000,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>24.000,00</t>
-  </si>
-  <si>
-    <t>9.500,00</t>
-  </si>
-  <si>
-    <t>33.000,00</t>
-  </si>
-  <si>
-    <t>45.200,00</t>
-  </si>
-  <si>
-    <t>156.000,00</t>
-  </si>
-  <si>
-    <t>53.000,00</t>
-  </si>
-  <si>
-    <t>22.800,00</t>
-  </si>
-  <si>
-    <t>7.610,20</t>
-  </si>
-  <si>
-    <t>19.272,00</t>
-  </si>
-  <si>
-    <t>1.920,76</t>
-  </si>
-  <si>
-    <t>40.390,00</t>
-  </si>
-  <si>
-    <t>951,00</t>
-  </si>
-  <si>
-    <t>3.960,00</t>
-  </si>
-  <si>
-    <t>1.550,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>52.166,50</t>
-  </si>
-  <si>
-    <t>8.570,00</t>
-  </si>
-  <si>
-    <t>9.800,00</t>
-  </si>
-  <si>
-    <t>47.035,12</t>
-  </si>
-  <si>
-    <t>9.200,00</t>
-  </si>
-  <si>
-    <t>59.539,60</t>
-  </si>
-  <si>
-    <t>12.700,00</t>
-  </si>
-  <si>
-    <t>213,63</t>
-  </si>
-  <si>
-    <t>21.605,00</t>
-  </si>
-  <si>
-    <t>2.880,00</t>
-  </si>
-  <si>
-    <t>6.975,00</t>
-  </si>
-  <si>
-    <t>1.930,00</t>
-  </si>
-  <si>
-    <t>18.530,00</t>
-  </si>
-  <si>
-    <t>181.550,00</t>
-  </si>
-  <si>
-    <t>28.800,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>490,00</t>
-  </si>
-  <si>
-    <t>3.604,28</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>1.320,00</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>2.796,50</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>287,91</t>
-  </si>
-  <si>
-    <t>455,70</t>
-  </si>
-  <si>
-    <t>29.210,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>760,00</t>
-  </si>
-  <si>
-    <t>11.599,07</t>
-  </si>
-  <si>
-    <t>9.590,88</t>
-  </si>
-  <si>
-    <t>80.000,00</t>
-  </si>
-  <si>
-    <t>55.000,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>23.754,85</t>
-  </si>
-  <si>
-    <t>6.840.918,99</t>
-  </si>
-  <si>
-    <t>12.945,10</t>
-  </si>
-  <si>
-    <t>695.000,00</t>
-  </si>
-  <si>
-    <t>5.470.727,58</t>
-  </si>
-  <si>
-    <t>250.000,00</t>
-  </si>
-  <si>
-    <t>270.250,00</t>
-  </si>
-  <si>
-    <t>273.700,00</t>
-  </si>
-  <si>
-    <t>253.200,00</t>
-  </si>
-  <si>
-    <t>480.350,00</t>
-  </si>
-  <si>
-    <t>603.450,00</t>
-  </si>
-  <si>
-    <t>557.000,00</t>
-  </si>
-  <si>
-    <t>304.900,00</t>
-  </si>
-  <si>
-    <t>500.000,00</t>
-  </si>
-  <si>
-    <t>396.300,00</t>
-  </si>
-  <si>
-    <t>494.800,00</t>
-  </si>
-  <si>
-    <t>711.150,00</t>
-  </si>
-  <si>
-    <t>470.000,00</t>
-  </si>
-  <si>
-    <t>725.400,00</t>
-  </si>
-  <si>
-    <t>258.800,00</t>
-  </si>
-  <si>
-    <t>13.200,00</t>
-  </si>
-  <si>
-    <t>1.432.750,25</t>
-  </si>
-  <si>
-    <t>1.070.000,00</t>
-  </si>
-  <si>
-    <t>309.100,00</t>
-  </si>
-  <si>
-    <t>128.106,83</t>
-  </si>
-  <si>
-    <t>118.000,00</t>
-  </si>
-  <si>
-    <t>9.231,75</t>
-  </si>
-  <si>
-    <t>106.080,00</t>
-  </si>
-  <si>
-    <t>45.100,00</t>
-  </si>
-  <si>
-    <t>198.800,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>6.800,00</t>
-  </si>
-  <si>
-    <t>4.560.000,00</t>
-  </si>
-  <si>
-    <t>29.635,00</t>
-  </si>
-  <si>
-    <t>4.200,00</t>
+    <t>52000.00</t>
+  </si>
+  <si>
+    <t>119060.00</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>64050.00</t>
+  </si>
+  <si>
+    <t>498000.00</t>
+  </si>
+  <si>
+    <t>352800.00</t>
+  </si>
+  <si>
+    <t>746000.00</t>
+  </si>
+  <si>
+    <t>735000.00</t>
+  </si>
+  <si>
+    <t>40461.00</t>
+  </si>
+  <si>
+    <t>1450.00</t>
+  </si>
+  <si>
+    <t>889.90</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>10150.00</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>34936.08</t>
+  </si>
+  <si>
+    <t>1204.50</t>
+  </si>
+  <si>
+    <t>17548.75</t>
+  </si>
+  <si>
+    <t>320.00</t>
+  </si>
+  <si>
+    <t>6640.00</t>
+  </si>
+  <si>
+    <t>917178.00</t>
+  </si>
+  <si>
+    <t>221358.64</t>
+  </si>
+  <si>
+    <t>322608.00</t>
+  </si>
+  <si>
+    <t>95259.70</t>
+  </si>
+  <si>
+    <t>81500.00</t>
+  </si>
+  <si>
+    <t>386600.00</t>
+  </si>
+  <si>
+    <t>13050.00</t>
+  </si>
+  <si>
+    <t>18047.60</t>
+  </si>
+  <si>
+    <t>40075.00</t>
+  </si>
+  <si>
+    <t>69932.00</t>
+  </si>
+  <si>
+    <t>16047.60</t>
+  </si>
+  <si>
+    <t>126745.09</t>
+  </si>
+  <si>
+    <t>735.00</t>
+  </si>
+  <si>
+    <t>120800.00</t>
+  </si>
+  <si>
+    <t>39857.99</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>13000.00</t>
+  </si>
+  <si>
+    <t>7900.00</t>
+  </si>
+  <si>
+    <t>234.00</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>112000.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>533.00</t>
+  </si>
+  <si>
+    <t>6850.00</t>
+  </si>
+  <si>
+    <t>23718.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>429439.91</t>
+  </si>
+  <si>
+    <t>38028.39</t>
+  </si>
+  <si>
+    <t>69993.92</t>
+  </si>
+  <si>
+    <t>1322481.60</t>
+  </si>
+  <si>
+    <t>17629.00</t>
+  </si>
+  <si>
+    <t>96206.00</t>
+  </si>
+  <si>
+    <t>3274600.00</t>
+  </si>
+  <si>
+    <t>9963.14</t>
+  </si>
+  <si>
+    <t>550.60</t>
+  </si>
+  <si>
+    <t>1576.61</t>
+  </si>
+  <si>
+    <t>3675.00</t>
+  </si>
+  <si>
+    <t>7710.00</t>
+  </si>
+  <si>
+    <t>35240.86</t>
+  </si>
+  <si>
+    <t>427.80</t>
+  </si>
+  <si>
+    <t>10617.09</t>
+  </si>
+  <si>
+    <t>581405.00</t>
+  </si>
+  <si>
+    <t>4199.28</t>
+  </si>
+  <si>
+    <t>17088.95</t>
+  </si>
+  <si>
+    <t>4525.26</t>
+  </si>
+  <si>
+    <t>13730.00</t>
+  </si>
+  <si>
+    <t>32385.00</t>
+  </si>
+  <si>
+    <t>2771.00</t>
+  </si>
+  <si>
+    <t>2849.85</t>
+  </si>
+  <si>
+    <t>1958.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>51456.00</t>
+  </si>
+  <si>
+    <t>8360.00</t>
+  </si>
+  <si>
+    <t>36299.79</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>27740.00</t>
+  </si>
+  <si>
+    <t>11710.00</t>
+  </si>
+  <si>
+    <t>177.60</t>
+  </si>
+  <si>
+    <t>2944.00</t>
+  </si>
+  <si>
+    <t>11400.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>13900.00</t>
+  </si>
+  <si>
+    <t>29400.00</t>
+  </si>
+  <si>
+    <t>1799800.00</t>
+  </si>
+  <si>
+    <t>32000.00</t>
+  </si>
+  <si>
+    <t>87500.00</t>
+  </si>
+  <si>
+    <t>5850.00</t>
+  </si>
+  <si>
+    <t>151500.00</t>
+  </si>
+  <si>
+    <t>24400.00</t>
+  </si>
+  <si>
+    <t>32500.00</t>
+  </si>
+  <si>
+    <t>91255.00</t>
+  </si>
+  <si>
+    <t>660.00</t>
+  </si>
+  <si>
+    <t>1080.00</t>
+  </si>
+  <si>
+    <t>6260.00</t>
+  </si>
+  <si>
+    <t>125830.00</t>
+  </si>
+  <si>
+    <t>1835.18</t>
+  </si>
+  <si>
+    <t>15619.73</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>5861.00</t>
+  </si>
+  <si>
+    <t>6914.75</t>
+  </si>
+  <si>
+    <t>730.00</t>
+  </si>
+  <si>
+    <t>844.24</t>
+  </si>
+  <si>
+    <t>6355.05</t>
+  </si>
+  <si>
+    <t>2432.00</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>26680.00</t>
+  </si>
+  <si>
+    <t>38629.50</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>7364.30</t>
+  </si>
+  <si>
+    <t>3950.00</t>
+  </si>
+  <si>
+    <t>102944.00</t>
+  </si>
+  <si>
+    <t>259351.00</t>
+  </si>
+  <si>
+    <t>315.00</t>
+  </si>
+  <si>
+    <t>4297.00</t>
+  </si>
+  <si>
+    <t>28745.00</t>
+  </si>
+  <si>
+    <t>10286.00</t>
+  </si>
+  <si>
+    <t>28557.27</t>
+  </si>
+  <si>
+    <t>2739.00</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>11855.00</t>
+  </si>
+  <si>
+    <t>2484.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>11200.00</t>
+  </si>
+  <si>
+    <t>86905.83</t>
+  </si>
+  <si>
+    <t>68789.00</t>
+  </si>
+  <si>
+    <t>20130.00</t>
+  </si>
+  <si>
+    <t>5070.00</t>
+  </si>
+  <si>
+    <t>327046.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>131600.00</t>
+  </si>
+  <si>
+    <t>540000.00</t>
+  </si>
+  <si>
+    <t>14400.00</t>
+  </si>
+  <si>
+    <t>21120.00</t>
+  </si>
+  <si>
+    <t>30647.00</t>
+  </si>
+  <si>
+    <t>187300.00</t>
+  </si>
+  <si>
+    <t>6845.00</t>
+  </si>
+  <si>
+    <t>40132.00</t>
+  </si>
+  <si>
+    <t>65400.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>37000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>9500.00</t>
+  </si>
+  <si>
+    <t>33000.00</t>
+  </si>
+  <si>
+    <t>45200.00</t>
+  </si>
+  <si>
+    <t>156000.00</t>
+  </si>
+  <si>
+    <t>53000.00</t>
+  </si>
+  <si>
+    <t>22800.00</t>
+  </si>
+  <si>
+    <t>7610.20</t>
+  </si>
+  <si>
+    <t>19272.00</t>
+  </si>
+  <si>
+    <t>1920.76</t>
+  </si>
+  <si>
+    <t>40390.00</t>
+  </si>
+  <si>
+    <t>951.00</t>
+  </si>
+  <si>
+    <t>3960.00</t>
+  </si>
+  <si>
+    <t>1550.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>52166.50</t>
+  </si>
+  <si>
+    <t>8570.00</t>
+  </si>
+  <si>
+    <t>9800.00</t>
+  </si>
+  <si>
+    <t>47035.12</t>
+  </si>
+  <si>
+    <t>9200.00</t>
+  </si>
+  <si>
+    <t>59539.60</t>
+  </si>
+  <si>
+    <t>12700.00</t>
+  </si>
+  <si>
+    <t>213.63</t>
+  </si>
+  <si>
+    <t>21605.00</t>
+  </si>
+  <si>
+    <t>2880.00</t>
+  </si>
+  <si>
+    <t>6975.00</t>
+  </si>
+  <si>
+    <t>1930.00</t>
+  </si>
+  <si>
+    <t>18530.00</t>
+  </si>
+  <si>
+    <t>181550.00</t>
+  </si>
+  <si>
+    <t>28800.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>490.00</t>
+  </si>
+  <si>
+    <t>3604.28</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>1320.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>2796.50</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>287.91</t>
+  </si>
+  <si>
+    <t>455.70</t>
+  </si>
+  <si>
+    <t>29210.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>760.00</t>
+  </si>
+  <si>
+    <t>11599.07</t>
+  </si>
+  <si>
+    <t>9590.88</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>23754.85</t>
+  </si>
+  <si>
+    <t>6840918.99</t>
+  </si>
+  <si>
+    <t>12945.10</t>
+  </si>
+  <si>
+    <t>695000.00</t>
+  </si>
+  <si>
+    <t>5470727.58</t>
+  </si>
+  <si>
+    <t>250000.00</t>
+  </si>
+  <si>
+    <t>270250.00</t>
+  </si>
+  <si>
+    <t>273700.00</t>
+  </si>
+  <si>
+    <t>253200.00</t>
+  </si>
+  <si>
+    <t>480350.00</t>
+  </si>
+  <si>
+    <t>603450.00</t>
+  </si>
+  <si>
+    <t>557000.00</t>
+  </si>
+  <si>
+    <t>304900.00</t>
+  </si>
+  <si>
+    <t>500000.00</t>
+  </si>
+  <si>
+    <t>396300.00</t>
+  </si>
+  <si>
+    <t>494800.00</t>
+  </si>
+  <si>
+    <t>711150.00</t>
+  </si>
+  <si>
+    <t>470000.00</t>
+  </si>
+  <si>
+    <t>725400.00</t>
+  </si>
+  <si>
+    <t>258800.00</t>
+  </si>
+  <si>
+    <t>13200.00</t>
+  </si>
+  <si>
+    <t>1432750.25</t>
+  </si>
+  <si>
+    <t>1070000.00</t>
+  </si>
+  <si>
+    <t>309100.00</t>
+  </si>
+  <si>
+    <t>128106.83</t>
+  </si>
+  <si>
+    <t>118000.00</t>
+  </si>
+  <si>
+    <t>9231.75</t>
+  </si>
+  <si>
+    <t>106080.00</t>
+  </si>
+  <si>
+    <t>45100.00</t>
+  </si>
+  <si>
+    <t>198800.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>6800.00</t>
+  </si>
+  <si>
+    <t>4560000.00</t>
+  </si>
+  <si>
+    <t>29635.00</t>
+  </si>
+  <si>
+    <t>4200.00</t>
   </si>
 </sst>
 </file>
